--- a/QuickBio_format.xlsx
+++ b/QuickBio_format.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\reveur\wsl_shared\python\environmental\quickbio\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\reveur\wsl_shared\python\environmental\quickbio\test\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A403DA-6D0F-42C9-B4E7-21A12A352E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5619910-D542-44F7-A876-FF8EC93D024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="study_info" sheetId="2" r:id="rId1"/>
-    <sheet name="records" sheetId="1" r:id="rId2"/>
+    <sheet name="records" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Unidad de vegetación</t>
   </si>
@@ -97,18 +96,6 @@
     <t>Flora</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>specialist</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -130,18 +117,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>Humeda</t>
-  </si>
-  <si>
-    <t>study_id</t>
-  </si>
-  <si>
-    <t>study_name</t>
-  </si>
-  <si>
-    <t>study_type</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -157,27 +132,9 @@
     <t>indirect_obs</t>
   </si>
   <si>
-    <t>temporality</t>
-  </si>
-  <si>
-    <t>Italo Buitron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificación al EIA de Antamina </t>
-  </si>
-  <si>
-    <t>MEIA</t>
-  </si>
-  <si>
     <t>Húmeda</t>
   </si>
   <si>
-    <t>peru</t>
-  </si>
-  <si>
-    <t>plants</t>
-  </si>
-  <si>
     <t>Chaerophyllum andicola (Linnaeus, 1758)</t>
   </si>
   <si>
@@ -188,13 +145,16 @@
   </si>
   <si>
     <t>Especie</t>
+  </si>
+  <si>
+    <t>season</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +169,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -293,44 +246,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,446 +585,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7711FC-0DF2-4F03-B6AE-2F2629FCCD58}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="14" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>44844</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="J3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="8">
         <v>6</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11">
+      <c r="L3" s="8"/>
+      <c r="M3" s="9">
         <v>41.403379999999999</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <v>2.1740300000000001</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="9">
         <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>44844</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="J4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11">
+      <c r="L4" s="8"/>
+      <c r="M4" s="9">
         <v>41.403379999999999</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>2.1740300000000001</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="9">
         <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>44844</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="8">
         <v>0</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11">
+      <c r="L5" s="8"/>
+      <c r="M5" s="9">
         <v>41.403379999999999</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>2.1740300000000001</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>44844</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11">
+      <c r="L6" s="8"/>
+      <c r="M6" s="9">
         <v>41.403379999999999</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>2.1740300000000001</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>44844</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <v>1</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11">
+      <c r="L7" s="8"/>
+      <c r="M7" s="9">
         <v>41.403379999999999</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>2.1740300000000001</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="9">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>44844</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
         <v>1</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11">
+      <c r="L8" s="8"/>
+      <c r="M8" s="9">
         <v>41.403379999999999</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>2.1740300000000001</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>3000</v>
       </c>
     </row>
